--- a/Lab3/workout.xlsx
+++ b/Lab3/workout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,22 +475,22 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Seated Shoulder External Rotation</t>
+          <t xml:space="preserve">Chest Dip </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t xml:space="preserve">Assisted  Chest Dip  </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Stand with side to elbow height cable pulley. Grasp stirrup attachment with far arm. Position elbow against side and forearm across belly.</t>
+          <t>Mountwide dip barwith oblique grip (bar diagonal under palm), arms straight with shoulders above hands. Step down onto assistance lever with hips and knees bent.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pull cable attachment away from body as far as possible by externally rotating shoulder. Return and repeat. Turn around and continue with opposite arm.</t>
+          <t>Lower body by bending arms, allowing elbows to flare out to sides. When slight stretch is felt in chest or shoulders, push body up until arms are straight. Repeat.</t>
         </is>
       </c>
     </row>
@@ -498,22 +498,22 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Standing Shoulder Internal Rotation</t>
+          <t>Push-up Plus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Body Weight</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Grasp suspension handles and position bent elbows to each sides of waist.</t>
+          <t>Lie supine on incline bench with shoulders under bar. Grasp bar with shoulder width overhand grip. Extend elbows. Disengage bar by rotating bar back.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pull handles apart from each side, while keeping fixed elbow position and body and legs straight throughout movement. Raise forward so handles are to each side of body. Return back until handles come back together in front of body. Repeat.</t>
+          <t>Raise shoulders toward bar as high as possible. Lower shoulders to bench and repeat.</t>
         </is>
       </c>
     </row>
@@ -521,22 +521,22 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pullover</t>
+          <t>Front Lateral Raise</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Cable</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lie upper back perpendicular on bench. Flex hips slightly. Grasp barbell from behind and position over chest with elbows bent slightly.</t>
+          <t>Grasp dumbbell cable attachment. Stand facing side with resting arm toward low pulley. Grasp ballet bar if available for support. Internally rotate shoulders so elbows point out to sides.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>With elbows bent slightly, lower bar over and beyond head until shoulders are fully flexed or upper arms are approximately parallel to torso. Return and repeat.</t>
+          <t>With elbow straight or slightly bent, raise upper arm away from low pulley to side, slightly to front (30°) until upper arm is shoulder height. Lower and repeat. Continue with opposite arm.</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bent-over Pullover</t>
+          <t>Rear Delt Row:  Standing Rear Delt Row (stirrups)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -554,12 +554,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Face high pulley and grasp revolving cable attachment with arm slightly bent. Place one foot slightly back and bend over at hip until shoulder is fully flexed (upper arms at sides of head).</t>
+          <t>Stand facing twin pulley cables positioned shoulder height. Grasp stirrup cable attachment in each hand. Step back with one foot so arms and shoulders are positioned straight forward with cable taut. Point elbows outward.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>With elbows fixed approximately 30°, pull cable attachment down until upper arms are to sides. Return attachment overhead. Repeat.</t>
+          <t>Pull stirrups out to sides, keeping elbows at shoulder height until elbows travel slightly behind back. Allow wrists to follow elbows. Keep upper arms horizontal, perpendicular to trunk. Return until arms are extended and shoulders are stretched forward. Repeat.</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Curl</t>
+          <t>Upright Row</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -577,12 +577,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Grasp bar with shoulder width underhand grip.</t>
+          <t>Grasp bar with shoulder width or slightly narrower overhand grip.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>With elbows to side, raise bar until forearms are vertical. Lower until arms are fully extended. Repeat.</t>
+          <t>Pull bar to neck with elbows leading. Allow wrists to flex as bar rises. Lower and repeat.</t>
         </is>
       </c>
     </row>
@@ -590,22 +590,22 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Reverse Curl</t>
+          <t>Triceps Dip</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Assisted</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Grasp bar with shoulder width overhand grip.</t>
+          <t>Mountshoulder width dip bar, arms straight with shoulders above hands. Step down onto assistance lever. Keep hips and knees straight.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>With elbows to side, raise bar until forearms are vertical. Lower until arms are fully extended. Repeat.</t>
+          <t>Lower body until slight stretch is felt in shoulders. Push body up until arms are straight. Repeat.</t>
         </is>
       </c>
     </row>
@@ -613,91 +613,63 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Concentration Curl</t>
+          <t>Incline Bench Press</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Barbell</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Facing low pulley cable, sit on seat or bench with legs apart to each side. Grasp stirrup attachment. Place upper arm against inner thigh.</t>
+          <t>Lie supine on incline bench. Dismount barbell from rack over upper chest using wide oblique overhand grip.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pull stirrup to front of shoulder until elbow is completely flexed. Lower stirrup until arm is fully extended. Repeat. Continue with opposite arm.</t>
+          <t>Lower weight to upper chest. Press bar until arms are extended. Repeat.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Wrist Curl</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Barbell</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Sit and grasp bar with narrow to shoulder width underhand grip. Rest forearms on thighs with wrists just beyond knees.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Allow barbell to roll out of palms down to fingers. Raise barbell back up by gripping and pointing knuckles up as high as possible. Lower and repeat.</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Seated Pronation </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Dumbbell</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Sit next to elevated surface, approximately arm pit height. With hand of upper arm, grasp unilaterally loaded dumbbell; pinkie positioned near weighted side. Bend elbow approximately 90-degrees and place upperarm on elevated surface. Position thumb upward (supinated).</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Rotate dumbbell so thumb turns downward (pronation). Return and repeat.</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TUESDAY</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pulldown</t>
+          <t>Wrist Curl</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Barbell</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Grasp cable bar with wide grip. Sit with thighs under supports.</t>
+          <t>Sit and grasp bar with narrow to shoulder width underhand grip. Rest forearms on thighs with wrists just beyond knees.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pull down cable bar to upper chest. Return until arms and shoulders are fully extended. Repeat.</t>
+          <t>Allow barbell to roll out of palms down to fingers. Raise barbell back up by gripping and pointing knuckles up as high as possible. Lower and repeat.</t>
         </is>
       </c>
     </row>
@@ -705,22 +677,22 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Seated Supination</t>
+          <t>Bent-over Pullover</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dumbbell</t>
+          <t>Cable</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sit next to elevated surface, approximately arm pit height. With hand of arm next to elevated surface, grasp unilaterally loaded dumbbell; thumb next to side with weight. Bend elbow approximately 90-degrees and place upperarm on elevated surface. Position thumb downward (pronated).</t>
+          <t>Face high pulley and grasp revolving cable attachment with arm slightly bent. Place one foot slightly back and bend over at hip until shoulder is fully flexed (upper arms at sides of head).</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Rotate dumbbell so thumb turns upward (supination). Return and repeat.</t>
+          <t>With elbows fixed approximately 30°, pull cable attachment down until upper arms are to sides. Return attachment overhead. Repeat.</t>
         </is>
       </c>
     </row>
@@ -728,22 +700,22 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Reverse Wrist Curl</t>
+          <t>Seated Shoulder External Rotation</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Cable</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sit and grasp bar with narrow to shoulder width overhand grip. Rest forearms on thighs with wrists just beyond knees.</t>
+          <t>Stand with side to elbow height cable pulley. Grasp stirrup attachment with far arm. Position elbow against side and forearm across belly.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Raise barbell by pointing knuckles upward as high as possible. Return until knuckles are pointing downward as far as possible. Repeat.</t>
+          <t>Pull cable attachment away from body as far as possible by externally rotating shoulder. Return and repeat. Turn around and continue with opposite arm.</t>
         </is>
       </c>
     </row>
@@ -751,7 +723,7 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Shrug</t>
+          <t>Reverse Curl</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -761,12 +733,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Stand holding barbell with overhand or mixed grip; shoulder width or slightly wider.</t>
+          <t>Grasp bar with shoulder width overhand grip.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Elevate shoulders as high as possible. Lower and repeat.</t>
+          <t>With elbows to side, raise bar until forearms are vertical. Lower until arms are fully extended. Repeat.</t>
         </is>
       </c>
     </row>
@@ -774,17 +746,17 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Gripless Shrug</t>
+          <t>Shrug</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sled</t>
+          <t>Barbell</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Stand with shoulders under padded bar.</t>
+          <t>Stand holding barbell with overhand or mixed grip; shoulder width or slightly wider.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -797,63 +769,91 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Seated Shoulder External Rotation:  Standing</t>
+          <t>One Arm Pull-up New!</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Body Weight</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Stand with side to elbow height cable pulley. Grasp stirrup attachment with far arm. Position elbow against side and forearm across belly.</t>
+          <t>Step up and grasp bar with underhand shoulder width grip.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pull cable attachment away from body as far as possible by externally rotating shoulder. Return and repeat. Turn around and continue with opposite arm.</t>
+          <t>Pull body up until elbows are to sides. Lower body until arms and shoulders are fully extended. Repeat.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seated Pronation </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Dumbbell</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sit next to elevated surface, approximately arm pit height. With hand of upper arm, grasp unilaterally loaded dumbbell; pinkie positioned near weighted side. Bend elbow approximately 90-degrees and place upperarm on elevated surface. Position thumb upward (supinated).</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Rotate dumbbell so thumb turns downward (pronation). Return and repeat.</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>TUESDAY</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Trap Bar Shrug</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Barbell</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Step into trap barbell and stand holding handles of trap bar to sides.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Elevate shoulders as high as possible. Lower and repeat.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Seated Shoulder External Rotation</t>
+          <t>Pull-up (open-centered bar)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Assisted (machine)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Stand with side to elbow height cable pulley. Grasp stirrup attachment with far arm. Position elbow against side and forearm across belly.</t>
+          <t>Step up and grasp bar with wide overhand grip. Kneel on padded platform and lower body down with arm extended.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pull cable attachment away from body as far as possible by externally rotating shoulder. Return and repeat. Turn around and continue with opposite arm.</t>
+          <t>Pull body up until neck reaches height of hands. Lower body until arms and shoulders are fully extended. Repeat.</t>
         </is>
       </c>
     </row>
@@ -884,22 +884,22 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pullover</t>
+          <t>Incline Curl</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Dumbbell</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lie upper back perpendicular on bench. Flex hips slightly. Grasp barbell from behind and position over chest with elbows bent slightly.</t>
+          <t>Sit back on 45-60 degree incline bench. With arms hanging down straight, position two dumbbells with palms facing inward.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>With elbows bent slightly, lower bar over and beyond head until shoulders are fully flexed or upper arms are approximately parallel to torso. Return and repeat.</t>
+          <t>With elbows back to sides, raise one dumbbell and rotate forearm until forearm is vertical and palm faces shoulder. Lower to original position and repeat with opposite arm. Continue to alternate between sides.</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bent-over Pullover</t>
+          <t>Seated Shoulder External Rotation:  Standing</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -917,12 +917,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Face high pulley and grasp revolving cable attachment with arm slightly bent. Place one foot slightly back and bend over at hip until shoulder is fully flexed (upper arms at sides of head).</t>
+          <t>Stand with side to elbow height cable pulley. Grasp stirrup attachment with far arm. Position elbow against side and forearm across belly.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>With elbows fixed approximately 30°, pull cable attachment down until upper arms are to sides. Return attachment overhead. Repeat.</t>
+          <t>Pull cable attachment away from body as far as possible by externally rotating shoulder. Return and repeat. Turn around and continue with opposite arm.</t>
         </is>
       </c>
     </row>
@@ -930,22 +930,22 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Curl</t>
+          <t>Inverted Row:  One Arm</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Suspended</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Grasp bar with shoulder width underhand grip.</t>
+          <t>Position suspension handles higher than arms' length above floor. Sit on floor and grasp handles. Position body supine hanging from handles with arms straight, shoulders under handles, body straight, and back of heels on floor.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>With elbows to side, raise bar until forearms are vertical. Lower until arms are fully extended. Repeat.</t>
+          <t>Pull body up so sides of chest make contact with handles while keeping body straight. Pull shoulders back at top of movement with chest high. Return until arms are extended straight and shoulders are stretched forward. Repeat.</t>
         </is>
       </c>
     </row>
@@ -953,7 +953,7 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Reverse Curl</t>
+          <t>Reverse Wrist Curl</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -963,12 +963,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Grasp bar with shoulder width overhand grip.</t>
+          <t>Sit and grasp bar with narrow to shoulder width overhand grip. Rest forearms on thighs with wrists just beyond knees.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>With elbows to side, raise bar until forearms are vertical. Lower until arms are fully extended. Repeat.</t>
+          <t>Raise barbell by pointing knuckles upward as high as possible. Return until knuckles are pointing downward as far as possible. Repeat.</t>
         </is>
       </c>
     </row>
@@ -976,22 +976,22 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Concentration Curl</t>
+          <t>Preacher Curl</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Barbell</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Facing low pulley cable, sit on seat or bench with legs apart to each side. Grasp stirrup attachment. Place upper arm against inner thigh.</t>
+          <t>Sit on preacher bench placing back of arms on pad. Grasp curl bar with shoulder width underhand grip.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pull stirrup to front of shoulder until elbow is completely flexed. Lower stirrup until arm is fully extended. Repeat. Continue with opposite arm.</t>
+          <t>Raise bar until forearms are vertical. Lower barbell until arms are fully extended. Repeat.</t>
         </is>
       </c>
     </row>
@@ -999,91 +999,63 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wrist Curl</t>
+          <t>Seated Supination</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Dumbbell</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sit and grasp bar with narrow to shoulder width underhand grip. Rest forearms on thighs with wrists just beyond knees.</t>
+          <t>Sit next to elevated surface, approximately arm pit height. With hand of arm next to elevated surface, grasp unilaterally loaded dumbbell; thumb next to side with weight. Bend elbow approximately 90-degrees and place upperarm on elevated surface. Position thumb downward (pronated).</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Allow barbell to roll out of palms down to fingers. Raise barbell back up by gripping and pointing knuckles up as high as possible. Lower and repeat.</t>
+          <t>Rotate dumbbell so thumb turns upward (supination). Return and repeat.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Seated Pronation </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Dumbbell</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Sit next to elevated surface, approximately arm pit height. With hand of upper arm, grasp unilaterally loaded dumbbell; pinkie positioned near weighted side. Bend elbow approximately 90-degrees and place upperarm on elevated surface. Position thumb upward (supinated).</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Rotate dumbbell so thumb turns downward (pronation). Return and repeat.</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Pulldown</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Cable</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Grasp cable bar with wide grip. Sit with thighs under supports.</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Pull down cable bar to upper chest. Return until arms and shoulders are fully extended. Repeat.</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>WEDNESDAY</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Seated Supination</t>
+          <t>Squat:  Front Squat</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Dumbbell</t>
+          <t>Barbell</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sit next to elevated surface, approximately arm pit height. With hand of arm next to elevated surface, grasp unilaterally loaded dumbbell; thumb next to side with weight. Bend elbow approximately 90-degrees and place upperarm on elevated surface. Position thumb downward (pronated).</t>
+          <t>From rack with barbell upper chest height, position bar in front of shoulders. Cross arms and place hands on top of barbell with upper arms parallel to floor. Dismount bar from rack.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Rotate dumbbell so thumb turns upward (supination). Return and repeat.</t>
+          <t>Squat down by bending hips back while allowing knees to bend forward, keeping back straight and knees pointed same direction as feet. Descend until thighs are just past parallel. Extend knees and hips until legs are straight. Return and repeat.</t>
         </is>
       </c>
     </row>
@@ -1091,22 +1063,22 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Reverse Wrist Curl</t>
+          <t>Forward Angled Single Leg Calf Raise</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Suspended</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sit and grasp bar with narrow to shoulder width overhand grip. Rest forearms on thighs with wrists just beyond knees.</t>
+          <t>Position toes and balls of feet on calf block with heels and arches extending off. Place hands on support for assistance. Lift one leg to rear by bending knee.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Raise barbell by pointing knuckles upward as high as possible. Return until knuckles are pointing downward as far as possible. Repeat.</t>
+          <t>Raise heel by extending ankle as high as possible, assisting with upper body as little as possible. Lower heel by bending ankle until calf is stretched. Repeat. Continue with opposite leg.</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1086,7 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Shrug</t>
+          <t>Deadlifts</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1124,12 +1096,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Stand holding barbell with overhand or mixed grip; shoulder width or slightly wider.</t>
+          <t>With feet flat beneath bar squat down and grasp bar with shoulder width or slightly wider overhand or mixed grip.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Elevate shoulders as high as possible. Lower and repeat.</t>
+          <t>Lift bar by extending hips and knees to full extension. Pull shoulders back at top of lift if rounded. Return weights to floor by bending hips back while allowing knees to bend forward, keeping back straight and knees pointed same direction as feet. Repeat.</t>
         </is>
       </c>
     </row>
@@ -1137,22 +1109,22 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Gripless Shrug</t>
+          <t>Good-morning</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sled</t>
+          <t>Barbell</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Stand with shoulders under padded bar.</t>
+          <t>Position barbell on back of shoulders and grasp bar to sides.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Elevate shoulders as high as possible. Lower and repeat.</t>
+          <t>Keeping back straight, bend hips to lower torso forward until parallel to floor. Raise torso until hips are extended. Repeat.</t>
         </is>
       </c>
     </row>
@@ -1160,104 +1132,104 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Seated Shoulder External Rotation:  Standing</t>
+          <t>Safety Barbell Seated Calf Raise</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Barbell</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Stand with side to elbow height cable pulley. Grasp stirrup attachment with far arm. Position elbow against side and forearm across belly.</t>
+          <t>Place safety bar on rack approximately lower leg height with calf block slightly rear of safety bar. Sit on bench facing safety bar and place toes on lower portion of platform with heels extending off. Scoot forward to edge of bench and position lower thighs under safety bar. Grasp bar to sides and lift bar from rack by pushing heels up. Slide back to center of bench.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Pull cable attachment away from body as far as possible by externally rotating shoulder. Return and repeat. Turn around and continue with opposite arm.</t>
+          <t>Lower heels by bending ankles until calves are stretched. Raise heels by extending ankles as high as possible. Repeat.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Safety Bar Reverse Calf Raise</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Barbell</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Standing facing safety barbell on rack upper chest height and calf block on floor just below. Position heels on forward edge of calf block. Place hands on bar to each sides or on vertical rack bars. Position head in yoke with padded bar around shoulders. Dismount bar from rack by standing erect with safety bar, away yet close to rack.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Pull forefeet up toward body as far as possible. Return by extending feet until toes are pointed downward. Repeat.</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>WEDNESDAY</t>
-        </is>
-      </c>
+      <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>THURSDAY</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>THURSDAY</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Seated Shoulder External Rotation</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Cable</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Stand with side to elbow height cable pulley. Grasp stirrup attachment with far arm. Position elbow against side and forearm across belly.</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Pull cable attachment away from body as far as possible by externally rotating shoulder. Return and repeat. Turn around and continue with opposite arm.</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>FRIDAY</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Standing Shoulder Internal Rotation</t>
+          <t xml:space="preserve">Chest Dip </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t xml:space="preserve">Assisted  Chest Dip  </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Grasp suspension handles and position bent elbows to each sides of waist.</t>
+          <t>Mountwide dip barwith oblique grip (bar diagonal under palm), arms straight with shoulders above hands. Step down onto assistance lever with hips and knees bent.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Pull handles apart from each side, while keeping fixed elbow position and body and legs straight throughout movement. Raise forward so handles are to each side of body. Return back until handles come back together in front of body. Repeat.</t>
+          <t>Lower body by bending arms, allowing elbows to flare out to sides. When slight stretch is felt in chest or shoulders, push body up until arms are straight. Repeat.</t>
         </is>
       </c>
     </row>
@@ -1265,22 +1237,22 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pullover</t>
+          <t>Push-up Plus</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Body Weight</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Lie upper back perpendicular on bench. Flex hips slightly. Grasp barbell from behind and position over chest with elbows bent slightly.</t>
+          <t>Lie supine on incline bench with shoulders under bar. Grasp bar with shoulder width overhand grip. Extend elbows. Disengage bar by rotating bar back.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>With elbows bent slightly, lower bar over and beyond head until shoulders are fully flexed or upper arms are approximately parallel to torso. Return and repeat.</t>
+          <t>Raise shoulders toward bar as high as possible. Lower shoulders to bench and repeat.</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1260,7 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bent-over Pullover</t>
+          <t>Front Lateral Raise</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1298,12 +1270,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Face high pulley and grasp revolving cable attachment with arm slightly bent. Place one foot slightly back and bend over at hip until shoulder is fully flexed (upper arms at sides of head).</t>
+          <t>Grasp dumbbell cable attachment. Stand facing side with resting arm toward low pulley. Grasp ballet bar if available for support. Internally rotate shoulders so elbows point out to sides.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>With elbows fixed approximately 30°, pull cable attachment down until upper arms are to sides. Return attachment overhead. Repeat.</t>
+          <t>With elbow straight or slightly bent, raise upper arm away from low pulley to side, slightly to front (30°) until upper arm is shoulder height. Lower and repeat. Continue with opposite arm.</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1283,22 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Curl</t>
+          <t>Rear Delt Row:  Standing Rear Delt Row (stirrups)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Cable</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Grasp bar with shoulder width underhand grip.</t>
+          <t>Stand facing twin pulley cables positioned shoulder height. Grasp stirrup cable attachment in each hand. Step back with one foot so arms and shoulders are positioned straight forward with cable taut. Point elbows outward.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>With elbows to side, raise bar until forearms are vertical. Lower until arms are fully extended. Repeat.</t>
+          <t>Pull stirrups out to sides, keeping elbows at shoulder height until elbows travel slightly behind back. Allow wrists to follow elbows. Keep upper arms horizontal, perpendicular to trunk. Return until arms are extended and shoulders are stretched forward. Repeat.</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1306,7 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Reverse Curl</t>
+          <t>Upright Row</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1344,12 +1316,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Grasp bar with shoulder width overhand grip.</t>
+          <t>Grasp bar with shoulder width or slightly narrower overhand grip.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>With elbows to side, raise bar until forearms are vertical. Lower until arms are fully extended. Repeat.</t>
+          <t>Pull bar to neck with elbows leading. Allow wrists to flex as bar rises. Lower and repeat.</t>
         </is>
       </c>
     </row>
@@ -1357,22 +1329,22 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Concentration Curl</t>
+          <t>Triceps Dip</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Assisted</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Facing low pulley cable, sit on seat or bench with legs apart to each side. Grasp stirrup attachment. Place upper arm against inner thigh.</t>
+          <t>Mountshoulder width dip bar, arms straight with shoulders above hands. Step down onto assistance lever. Keep hips and knees straight.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Pull stirrup to front of shoulder until elbow is completely flexed. Lower stirrup until arm is fully extended. Repeat. Continue with opposite arm.</t>
+          <t>Lower body until slight stretch is felt in shoulders. Push body up until arms are straight. Repeat.</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1352,7 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Wrist Curl</t>
+          <t>Incline Bench Press</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1390,81 +1362,53 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sit and grasp bar with narrow to shoulder width underhand grip. Rest forearms on thighs with wrists just beyond knees.</t>
+          <t>Lie supine on incline bench. Dismount barbell from rack over upper chest using wide oblique overhand grip.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Allow barbell to roll out of palms down to fingers. Raise barbell back up by gripping and pointing knuckles up as high as possible. Lower and repeat.</t>
+          <t>Lower weight to upper chest. Press bar until arms are extended. Repeat.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Seated Pronation </t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Dumbbell</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Sit next to elevated surface, approximately arm pit height. With hand of upper arm, grasp unilaterally loaded dumbbell; pinkie positioned near weighted side. Bend elbow approximately 90-degrees and place upperarm on elevated surface. Position thumb upward (supinated).</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Rotate dumbbell so thumb turns downward (pronation). Return and repeat.</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Pulldown</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Cable</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Grasp cable bar with wide grip. Sit with thighs under supports.</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Pull down cable bar to upper chest. Return until arms and shoulders are fully extended. Repeat.</t>
-        </is>
-      </c>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SATURDAY</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Seated Supination</t>
+          <t>Wrist Curl</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Dumbbell</t>
+          <t>Barbell</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sit next to elevated surface, approximately arm pit height. With hand of arm next to elevated surface, grasp unilaterally loaded dumbbell; thumb next to side with weight. Bend elbow approximately 90-degrees and place upperarm on elevated surface. Position thumb downward (pronated).</t>
+          <t>Sit and grasp bar with narrow to shoulder width underhand grip. Rest forearms on thighs with wrists just beyond knees.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Rotate dumbbell so thumb turns upward (supination). Return and repeat.</t>
+          <t>Allow barbell to roll out of palms down to fingers. Raise barbell back up by gripping and pointing knuckles up as high as possible. Lower and repeat.</t>
         </is>
       </c>
     </row>
@@ -1472,22 +1416,22 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Reverse Wrist Curl</t>
+          <t>Bent-over Pullover</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Cable</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sit and grasp bar with narrow to shoulder width overhand grip. Rest forearms on thighs with wrists just beyond knees.</t>
+          <t>Face high pulley and grasp revolving cable attachment with arm slightly bent. Place one foot slightly back and bend over at hip until shoulder is fully flexed (upper arms at sides of head).</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Raise barbell by pointing knuckles upward as high as possible. Return until knuckles are pointing downward as far as possible. Repeat.</t>
+          <t>With elbows fixed approximately 30°, pull cable attachment down until upper arms are to sides. Return attachment overhead. Repeat.</t>
         </is>
       </c>
     </row>
@@ -1495,22 +1439,22 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Shrug</t>
+          <t>Seated Shoulder External Rotation</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Cable</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Stand holding barbell with overhand or mixed grip; shoulder width or slightly wider.</t>
+          <t>Stand with side to elbow height cable pulley. Grasp stirrup attachment with far arm. Position elbow against side and forearm across belly.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Elevate shoulders as high as possible. Lower and repeat.</t>
+          <t>Pull cable attachment away from body as far as possible by externally rotating shoulder. Return and repeat. Turn around and continue with opposite arm.</t>
         </is>
       </c>
     </row>
@@ -1518,22 +1462,22 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Gripless Shrug</t>
+          <t>Reverse Curl</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sled</t>
+          <t>Barbell</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Stand with shoulders under padded bar.</t>
+          <t>Grasp bar with shoulder width overhand grip.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Elevate shoulders as high as possible. Lower and repeat.</t>
+          <t>With elbows to side, raise bar until forearms are vertical. Lower until arms are fully extended. Repeat.</t>
         </is>
       </c>
     </row>
@@ -1541,63 +1485,91 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Seated Shoulder External Rotation:  Standing</t>
+          <t>Shrug</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Barbell</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Stand with side to elbow height cable pulley. Grasp stirrup attachment with far arm. Position elbow against side and forearm across belly.</t>
+          <t>Stand holding barbell with overhand or mixed grip; shoulder width or slightly wider.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Pull cable attachment away from body as far as possible by externally rotating shoulder. Return and repeat. Turn around and continue with opposite arm.</t>
+          <t>Elevate shoulders as high as possible. Lower and repeat.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>One Arm Pull-up New!</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Body Weight</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Step up and grasp bar with underhand shoulder width grip.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Pull body up until elbows are to sides. Lower body until arms and shoulders are fully extended. Repeat.</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>FRIDAY</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seated Pronation </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Dumbbell</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Sit next to elevated surface, approximately arm pit height. With hand of upper arm, grasp unilaterally loaded dumbbell; pinkie positioned near weighted side. Bend elbow approximately 90-degrees and place upperarm on elevated surface. Position thumb upward (supinated).</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Rotate dumbbell so thumb turns downward (pronation). Return and repeat.</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Incline Fly</t>
+          <t>Trap Bar Shrug</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Barbell</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sit on seat with stirrups in each hand (attached to low cable pulleys). Lie back on incline back support. Position stirrups out to each side of chest with bent arm under each wrist. Press stirrups over each shoulder until arms vertical. Bend elbows slightly and internally rotate shoulders so elbows point out to sides.</t>
+          <t>Step into trap barbell and stand holding handles of trap bar to sides.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Lower stirrups outward to sides of shoulders. Keep elbows fixed in slightly bent position. When a stretch is felt in chest or shoulders, bring stirrups back together in hugging motion above upper chest until stirrups are nearly together Repeat.</t>
+          <t>Elevate shoulders as high as possible. Lower and repeat.</t>
         </is>
       </c>
     </row>
@@ -1605,22 +1577,22 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Military Press:  Seated</t>
+          <t>Pull-up (open-centered bar)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Assisted (machine)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Grasp barbell with slightly wider than shoulder width overhand grip from rack. Position bar near upper chest.</t>
+          <t>Step up and grasp bar with wide overhand grip. Kneel on padded platform and lower body down with arm extended.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Press bar upward until arms are extended overhead. Return to upper chest and repeat.</t>
+          <t>Pull body up until neck reaches height of hands. Lower body until arms and shoulders are fully extended. Repeat.</t>
         </is>
       </c>
     </row>
@@ -1628,22 +1600,22 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Triceps Extension</t>
+          <t>Standing Shoulder Internal Rotation</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Cable</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sit on utility weight bench with barbell. Position barbell overhead with narrow overhand grip.</t>
+          <t>Grasp suspension handles and position bent elbows to each sides of waist.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Lower barbell behind upper shoulders by flexing elbows allowing forearms to travel behind upper arms with elbows remaining overhead. Raise barbell overhead by extending elbows until arms are positioned straight and vertical. Lower and repeat.</t>
+          <t>Pull handles apart from each side, while keeping fixed elbow position and body and legs straight throughout movement. Raise forward so handles are to each side of body. Return back until handles come back together in front of body. Repeat.</t>
         </is>
       </c>
     </row>
@@ -1651,22 +1623,22 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Rear Delt Row:  Standing Rear Delt Row (stirrups)</t>
+          <t>Incline Curl</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Dumbbell</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Stand facing twin pulley cables positioned shoulder height. Grasp stirrup cable attachment in each hand. Step back with one foot so arms and shoulders are positioned straight forward with cable taut. Point elbows outward.</t>
+          <t>Sit back on 45-60 degree incline bench. With arms hanging down straight, position two dumbbells with palms facing inward.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Pull stirrups out to sides, keeping elbows at shoulder height until elbows travel slightly behind back. Allow wrists to follow elbows. Keep upper arms horizontal, perpendicular to trunk. Return until arms are extended and shoulders are stretched forward. Repeat.</t>
+          <t>With elbows back to sides, raise one dumbbell and rotate forearm until forearm is vertical and palm faces shoulder. Lower to original position and repeat with opposite arm. Continue to alternate between sides.</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1646,7 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Front Lateral Raise</t>
+          <t>Seated Shoulder External Rotation:  Standing</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1684,12 +1656,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Grasp dumbbell cable attachment. Stand facing side with resting arm toward low pulley. Grasp ballet bar if available for support. Internally rotate shoulders so elbows point out to sides.</t>
+          <t>Stand with side to elbow height cable pulley. Grasp stirrup attachment with far arm. Position elbow against side and forearm across belly.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>With elbow straight or slightly bent, raise upper arm away from low pulley to side, slightly to front (30°) until upper arm is shoulder height. Lower and repeat. Continue with opposite arm.</t>
+          <t>Pull cable attachment away from body as far as possible by externally rotating shoulder. Return and repeat. Turn around and continue with opposite arm.</t>
         </is>
       </c>
     </row>
@@ -1697,22 +1669,22 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Incline Shoulder Raise</t>
+          <t>Inverted Row:  One Arm</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Suspended</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Lie supine on incline bench. Dismount barbell from rack with shoulder width overhand grip. Position barbell over upper chest with elbows extended.</t>
+          <t>Position suspension handles higher than arms' length above floor. Sit on floor and grasp handles. Position body supine hanging from handles with arms straight, shoulders under handles, body straight, and back of heels on floor.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Raise shoulders toward bar as high as possible. Lower shoulders to bench and repeat.</t>
+          <t>Pull body up so sides of chest make contact with handles while keeping body straight. Pull shoulders back at top of movement with chest high. Return until arms are extended straight and shoulders are stretched forward. Repeat.</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1692,7 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Pullover</t>
+          <t>Reverse Wrist Curl</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1730,12 +1702,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Lie upper back perpendicular on bench. Flex hips slightly. Grasp barbell from behind and position over chest with elbows bent slightly.</t>
+          <t>Sit and grasp bar with narrow to shoulder width overhand grip. Rest forearms on thighs with wrists just beyond knees.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>With elbows bent slightly, lower bar over and beyond head until shoulders are fully flexed or upper arms are approximately parallel to torso. Return and repeat.</t>
+          <t>Raise barbell by pointing knuckles upward as high as possible. Return until knuckles are pointing downward as far as possible. Repeat.</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1715,7 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Upright Row</t>
+          <t>Preacher Curl</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1753,71 +1725,99 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Grasp bar with shoulder width or slightly narrower overhand grip.</t>
+          <t>Sit on preacher bench placing back of arms on pad. Grasp curl bar with shoulder width underhand grip.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Pull bar to neck with elbows leading. Allow wrists to flex as bar rises. Lower and repeat.</t>
+          <t>Raise bar until forearms are vertical. Lower barbell until arms are fully extended. Repeat.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Seated Supination</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Dumbbell</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Sit next to elevated surface, approximately arm pit height. With hand of arm next to elevated surface, grasp unilaterally loaded dumbbell; thumb next to side with weight. Bend elbow approximately 90-degrees and place upperarm on elevated surface. Position thumb downward (pronated).</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Rotate dumbbell so thumb turns upward (supination). Return and repeat.</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>SATURDAY</t>
-        </is>
-      </c>
+      <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr"/>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SUNDAY</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>SUNDAY</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Squat:  Front Squat</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Barbell</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>From rack with barbell upper chest height, position bar in front of shoulders. Cross arms and place hands on top of barbell with upper arms parallel to floor. Dismount bar from rack.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Squat down by bending hips back while allowing knees to bend forward, keeping back straight and knees pointed same direction as feet. Descend until thighs are just past parallel. Extend knees and hips until legs are straight. Return and repeat.</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Military Press:  Seated</t>
+          <t>Forward Angled Single Leg Calf Raise</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Suspended</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Grasp barbell with slightly wider than shoulder width overhand grip from rack. Position bar near upper chest.</t>
+          <t>Position toes and balls of feet on calf block with heels and arches extending off. Place hands on support for assistance. Lift one leg to rear by bending knee.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Press bar upward until arms are extended overhead. Return to upper chest and repeat.</t>
+          <t>Raise heel by extending ankle as high as possible, assisting with upper body as little as possible. Lower heel by bending ankle until calf is stretched. Repeat. Continue with opposite leg.</t>
         </is>
       </c>
     </row>
@@ -1825,22 +1825,22 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Rear Delt Row:  Standing Rear Delt Row (stirrups)</t>
+          <t>Deadlifts</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Barbell</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Stand facing twin pulley cables positioned shoulder height. Grasp stirrup cable attachment in each hand. Step back with one foot so arms and shoulders are positioned straight forward with cable taut. Point elbows outward.</t>
+          <t>With feet flat beneath bar squat down and grasp bar with shoulder width or slightly wider overhand or mixed grip.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Pull stirrups out to sides, keeping elbows at shoulder height until elbows travel slightly behind back. Allow wrists to follow elbows. Keep upper arms horizontal, perpendicular to trunk. Return until arms are extended and shoulders are stretched forward. Repeat.</t>
+          <t>Lift bar by extending hips and knees to full extension. Pull shoulders back at top of lift if rounded. Return weights to floor by bending hips back while allowing knees to bend forward, keeping back straight and knees pointed same direction as feet. Repeat.</t>
         </is>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Curl</t>
+          <t>Good-morning</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1858,12 +1858,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Grasp bar with shoulder width underhand grip.</t>
+          <t>Position barbell on back of shoulders and grasp bar to sides.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>With elbows to side, raise bar until forearms are vertical. Lower until arms are fully extended. Repeat.</t>
+          <t>Keeping back straight, bend hips to lower torso forward until parallel to floor. Raise torso until hips are extended. Repeat.</t>
         </is>
       </c>
     </row>
@@ -1871,22 +1871,22 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Front Lateral Raise</t>
+          <t>Safety Barbell Seated Calf Raise</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Barbell</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Grasp dumbbell cable attachment. Stand facing side with resting arm toward low pulley. Grasp ballet bar if available for support. Internally rotate shoulders so elbows point out to sides.</t>
+          <t>Place safety bar on rack approximately lower leg height with calf block slightly rear of safety bar. Sit on bench facing safety bar and place toes on lower portion of platform with heels extending off. Scoot forward to edge of bench and position lower thighs under safety bar. Grasp bar to sides and lift bar from rack by pushing heels up. Slide back to center of bench.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>With elbow straight or slightly bent, raise upper arm away from low pulley to side, slightly to front (30°) until upper arm is shoulder height. Lower and repeat. Continue with opposite arm.</t>
+          <t>Lower heels by bending ankles until calves are stretched. Raise heels by extending ankles as high as possible. Repeat.</t>
         </is>
       </c>
     </row>
@@ -1894,54 +1894,31 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Concentration Curl</t>
+          <t>Safety Bar Reverse Calf Raise</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Barbell</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Facing low pulley cable, sit on seat or bench with legs apart to each side. Grasp stirrup attachment. Place upper arm against inner thigh.</t>
+          <t>Standing facing safety barbell on rack upper chest height and calf block on floor just below. Position heels on forward edge of calf block. Place hands on bar to each sides or on vertical rack bars. Position head in yoke with padded bar around shoulders. Dismount bar from rack by standing erect with safety bar, away yet close to rack.</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Pull stirrup to front of shoulder until elbow is completely flexed. Lower stirrup until arm is fully extended. Repeat. Continue with opposite arm.</t>
+          <t>Pull forefeet up toward body as far as possible. Return by extending feet until toes are pointed downward. Repeat.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Upright Row</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Barbell</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Grasp bar with shoulder width or slightly narrower overhand grip.</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Pull bar to neck with elbows leading. Allow wrists to flex as bar rises. Lower and repeat.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
